--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_26_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4699.255779209576</v>
+        <v>935151.9000627055</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4699.255779209576</v>
+        <v>935151.9000627055</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95928.90820415552</v>
+        <v>6685942.481215318</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95928.90820415552</v>
+        <v>6685942.481215318</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266993618.34522</v>
+        <v>47073678.00796369</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15171.21119473235</v>
+        <v>1320092.426691808</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27945.24769014631</v>
+        <v>2214034.777405786</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40730.30288330879</v>
+        <v>3107977.128119763</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53612.70105704598</v>
+        <v>4001128.383130873</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66495.08749671417</v>
+        <v>4894279.638141981</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>79377.48567045134</v>
+        <v>5787430.893153089</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>92260.34393207806</v>
+        <v>6680701.056730208</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>105143.0061878211</v>
+        <v>7573932.215136472</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>118030.3081385027</v>
+        <v>8462617.905627683</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>130925.0125597144</v>
+        <v>9352776.687754391</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>143819.7169809262</v>
+        <v>10242935.4698811</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>156714.4214021379</v>
+        <v>11133094.25200781</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>169609.1258233496</v>
+        <v>12023253.03413452</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>182503.8302445614</v>
+        <v>12913411.81626124</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>195397.4466239392</v>
+        <v>13802940.97533301</v>
       </c>
     </row>
   </sheetData>
